--- a/InputData/bldgs/SYCEU/Start Year Components Energy Use.xlsx
+++ b/InputData/bldgs/SYCEU/Start Year Components Energy Use.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US_EPS\InputData\bldgs\SYCEU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US-EPS\InputData\bldgs\SYCEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9274D504-2D87-41DF-A666-F61A76AEF188}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0894D94E-9F69-4385-BDDD-AB2A3184665B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="75" windowWidth="22245" windowHeight="17190" tabRatio="776" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="606">
   <si>
     <t>Sources:</t>
   </si>
@@ -502,9 +502,6 @@
   </si>
   <si>
     <t>escalators, off-road electric vehicles, laboratory fume hoods, laundry equipment, coffee brewers, water services, emergency generators,</t>
-  </si>
-  <si>
-    <t>http://www.eia.gov/forecasts/aeo/excel/aeotab_5.xlsx</t>
   </si>
   <si>
     <t>Detached</t>
@@ -1838,15 +1835,9 @@
     <t>https://www.eia.gov/consumption/residential/data/2015/hc/hc2.1.xlsx</t>
   </si>
   <si>
-    <t>https://www.eia.gov/outlooks/aeo/excel/aeotab_4.xlsx</t>
-  </si>
-  <si>
     <t>Urban Residential Split</t>
   </si>
   <si>
-    <t>Annual Energy Outlook 2019</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Distillate Fuel Oil 6/</t>
   </si>
   <si>
@@ -1992,6 +1983,9 @@
   </si>
   <si>
     <t xml:space="preserve">   7/ Consumption determined by using the average electric power sector net heat rate for fossil fuels.</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/aeo/tables_side.php</t>
   </si>
 </sst>
 </file>
@@ -2548,6 +2542,7 @@
     <xf numFmtId="168" fontId="8" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="9">
       <alignment wrapText="1"/>
     </xf>
@@ -2569,7 +2564,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2926,8 +2920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2957,17 +2951,17 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>558</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>556</v>
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2987,17 +2981,17 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>558</v>
+        <v>596</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>155</v>
+        <v>605</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3022,27 +3016,27 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3052,17 +3046,17 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3072,12 +3066,12 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3090,27 +3084,27 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3118,7 +3112,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B42" s="55"/>
     </row>
@@ -3193,7 +3187,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -3220,7 +3214,7 @@
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C62" s="3"/>
     </row>
@@ -3292,7 +3286,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3301,7 +3295,7 @@
         <v>0.80118443316412857</v>
       </c>
       <c r="B79" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3310,16 +3304,15 @@
         <v>0.1988155668358714</v>
       </c>
       <c r="B80" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B21" r:id="rId1" display="http://www.euroheat.org/United-States-156.aspx" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3343,7 +3336,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="58" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C1" s="60">
         <v>2019</v>
@@ -3445,10 +3438,10 @@
     <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
@@ -3456,23 +3449,23 @@
     </row>
     <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
@@ -3480,18 +3473,18 @@
     </row>
     <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B10" s="59" t="s">
         <v>62</v>
@@ -3603,7 +3596,7 @@
         <v>3</v>
       </c>
       <c r="AI12" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3723,7 +3716,7 @@
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B17" s="62" t="s">
         <v>64</v>
@@ -3830,7 +3823,7 @@
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B18" s="62" t="s">
         <v>65</v>
@@ -3937,7 +3930,7 @@
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B19" s="62" t="s">
         <v>66</v>
@@ -4044,7 +4037,7 @@
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B20" s="61" t="s">
         <v>9</v>
@@ -4151,7 +4144,7 @@
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B22" s="61" t="s">
         <v>67</v>
@@ -4268,7 +4261,7 @@
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B26" s="62" t="s">
         <v>70</v>
@@ -4375,7 +4368,7 @@
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B27" s="62" t="s">
         <v>71</v>
@@ -4487,7 +4480,7 @@
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B29" s="62" t="s">
         <v>70</v>
@@ -4594,7 +4587,7 @@
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B30" s="62" t="s">
         <v>71</v>
@@ -4711,7 +4704,7 @@
     </row>
     <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B34" s="62" t="s">
         <v>72</v>
@@ -4818,7 +4811,7 @@
     </row>
     <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B35" s="62" t="s">
         <v>73</v>
@@ -4925,7 +4918,7 @@
     </row>
     <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B36" s="62" t="s">
         <v>74</v>
@@ -5032,7 +5025,7 @@
     </row>
     <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B37" s="62" t="s">
         <v>23</v>
@@ -5139,7 +5132,7 @@
     </row>
     <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B38" s="62" t="s">
         <v>21</v>
@@ -5246,7 +5239,7 @@
     </row>
     <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B39" s="62" t="s">
         <v>75</v>
@@ -5353,7 +5346,7 @@
     </row>
     <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B40" s="62" t="s">
         <v>76</v>
@@ -5460,7 +5453,7 @@
     </row>
     <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B41" s="62" t="s">
         <v>22</v>
@@ -5567,7 +5560,7 @@
     </row>
     <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B42" s="62" t="s">
         <v>77</v>
@@ -5674,7 +5667,7 @@
     </row>
     <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B43" s="62" t="s">
         <v>78</v>
@@ -5780,8 +5773,8 @@
       </c>
     </row>
     <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="78" t="s">
-        <v>319</v>
+      <c r="A44" s="71" t="s">
+        <v>318</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>79</v>
@@ -5887,8 +5880,8 @@
       </c>
     </row>
     <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="78" t="s">
-        <v>318</v>
+      <c r="A45" s="71" t="s">
+        <v>317</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>80</v>
@@ -5995,7 +5988,7 @@
     </row>
     <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>81</v>
@@ -6101,8 +6094,8 @@
       </c>
     </row>
     <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="78" t="s">
-        <v>316</v>
+      <c r="A47" s="71" t="s">
+        <v>315</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>29</v>
@@ -6209,7 +6202,7 @@
     </row>
     <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B48" s="61" t="s">
         <v>25</v>
@@ -6321,7 +6314,7 @@
     </row>
     <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B51" s="62" t="s">
         <v>72</v>
@@ -6428,7 +6421,7 @@
     </row>
     <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B52" s="62" t="s">
         <v>73</v>
@@ -6535,7 +6528,7 @@
     </row>
     <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B53" s="62" t="s">
         <v>74</v>
@@ -6642,7 +6635,7 @@
     </row>
     <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B54" s="62" t="s">
         <v>21</v>
@@ -6749,7 +6742,7 @@
     </row>
     <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B55" s="62" t="s">
         <v>75</v>
@@ -6856,7 +6849,7 @@
     </row>
     <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B56" s="62" t="s">
         <v>82</v>
@@ -6963,7 +6956,7 @@
     </row>
     <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B57" s="61" t="s">
         <v>25</v>
@@ -7070,12 +7063,12 @@
     </row>
     <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="61" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B60" s="62" t="s">
         <v>72</v>
@@ -7182,7 +7175,7 @@
     </row>
     <row r="61" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B61" s="62" t="s">
         <v>74</v>
@@ -7289,10 +7282,10 @@
     </row>
     <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B62" s="62" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C62" s="63">
         <v>7.639E-3</v>
@@ -7396,7 +7389,7 @@
     </row>
     <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B63" s="61" t="s">
         <v>25</v>
@@ -7508,7 +7501,7 @@
     </row>
     <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B66" s="62" t="s">
         <v>72</v>
@@ -7615,7 +7608,7 @@
     </row>
     <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B67" s="62" t="s">
         <v>74</v>
@@ -7722,7 +7715,7 @@
     </row>
     <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B68" s="62" t="s">
         <v>21</v>
@@ -7829,10 +7822,10 @@
     </row>
     <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B69" s="62" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C69" s="63">
         <v>6.7835999999999994E-2</v>
@@ -7936,7 +7929,7 @@
     </row>
     <row r="70" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B70" s="61" t="s">
         <v>25</v>
@@ -8043,10 +8036,10 @@
     </row>
     <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B72" s="62" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C72" s="63">
         <v>0.52879699999999996</v>
@@ -8155,7 +8148,7 @@
     </row>
     <row r="75" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B75" s="62" t="s">
         <v>84</v>
@@ -8262,7 +8255,7 @@
     </row>
     <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B76" s="62" t="s">
         <v>85</v>
@@ -8369,7 +8362,7 @@
     </row>
     <row r="77" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B77" s="62" t="s">
         <v>86</v>
@@ -8476,7 +8469,7 @@
     </row>
     <row r="78" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B78" s="62" t="s">
         <v>87</v>
@@ -8583,7 +8576,7 @@
     </row>
     <row r="79" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B79" s="62" t="s">
         <v>88</v>
@@ -8690,7 +8683,7 @@
     </row>
     <row r="80" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B80" s="62" t="s">
         <v>89</v>
@@ -8797,7 +8790,7 @@
     </row>
     <row r="81" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B81" s="62" t="s">
         <v>90</v>
@@ -8904,7 +8897,7 @@
     </row>
     <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B82" s="62" t="s">
         <v>91</v>
@@ -9011,7 +9004,7 @@
     </row>
     <row r="83" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B83" s="62" t="s">
         <v>92</v>
@@ -9118,7 +9111,7 @@
     </row>
     <row r="84" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B84" s="62" t="s">
         <v>93</v>
@@ -9225,7 +9218,7 @@
     </row>
     <row r="85" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B85" s="62" t="s">
         <v>94</v>
@@ -9332,7 +9325,7 @@
     </row>
     <row r="86" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B86" s="62" t="s">
         <v>95</v>
@@ -9439,7 +9432,7 @@
     </row>
     <row r="87" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B87" s="62" t="s">
         <v>96</v>
@@ -9546,10 +9539,10 @@
     </row>
     <row r="88" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B88" s="62" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C88" s="63">
         <v>1.8038179999999999</v>
@@ -9653,7 +9646,7 @@
     </row>
     <row r="89" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B89" s="61" t="s">
         <v>97</v>
@@ -9760,7 +9753,7 @@
     </row>
     <row r="91" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B91" s="61" t="s">
         <v>34</v>
@@ -9872,7 +9865,7 @@
     </row>
     <row r="94" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B94" s="62" t="s">
         <v>84</v>
@@ -9979,7 +9972,7 @@
     </row>
     <row r="95" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B95" s="62" t="s">
         <v>85</v>
@@ -10086,7 +10079,7 @@
     </row>
     <row r="96" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B96" s="62" t="s">
         <v>86</v>
@@ -10193,7 +10186,7 @@
     </row>
     <row r="97" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B97" s="62" t="s">
         <v>87</v>
@@ -10300,7 +10293,7 @@
     </row>
     <row r="98" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B98" s="62" t="s">
         <v>88</v>
@@ -10407,7 +10400,7 @@
     </row>
     <row r="99" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B99" s="62" t="s">
         <v>89</v>
@@ -10514,7 +10507,7 @@
     </row>
     <row r="100" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B100" s="62" t="s">
         <v>90</v>
@@ -10621,7 +10614,7 @@
     </row>
     <row r="101" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B101" s="62" t="s">
         <v>91</v>
@@ -10728,7 +10721,7 @@
     </row>
     <row r="102" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B102" s="62" t="s">
         <v>92</v>
@@ -10835,7 +10828,7 @@
     </row>
     <row r="103" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B103" s="62" t="s">
         <v>93</v>
@@ -10942,7 +10935,7 @@
     </row>
     <row r="104" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B104" s="62" t="s">
         <v>94</v>
@@ -11049,7 +11042,7 @@
     </row>
     <row r="105" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B105" s="62" t="s">
         <v>95</v>
@@ -11156,7 +11149,7 @@
     </row>
     <row r="106" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B106" s="62" t="s">
         <v>96</v>
@@ -11263,10 +11256,10 @@
     </row>
     <row r="107" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B107" s="62" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C107" s="63">
         <v>4.6776910000000003</v>
@@ -11370,7 +11363,7 @@
     </row>
     <row r="108" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B108" s="61" t="s">
         <v>98</v>
@@ -11477,12 +11470,12 @@
     </row>
     <row r="110" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="61" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="111" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B111" s="62" t="s">
         <v>99</v>
@@ -11589,7 +11582,7 @@
     </row>
     <row r="112" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B112" s="62" t="s">
         <v>100</v>
@@ -11696,7 +11689,7 @@
     </row>
     <row r="113" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B113" s="62" t="s">
         <v>38</v>
@@ -11803,7 +11796,7 @@
     </row>
     <row r="114" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B114" s="62" t="s">
         <v>39</v>
@@ -11910,7 +11903,7 @@
     </row>
     <row r="115" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B115" s="61" t="s">
         <v>40</v>
@@ -12022,7 +12015,7 @@
     </row>
     <row r="118" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B118" s="62" t="s">
         <v>42</v>
@@ -12129,7 +12122,7 @@
     </row>
     <row r="119" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B119" s="62" t="s">
         <v>43</v>
@@ -12236,7 +12229,7 @@
     </row>
     <row r="120" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B120" s="62" t="s">
         <v>44</v>
@@ -12343,7 +12336,7 @@
     </row>
     <row r="121" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B121" s="62" t="s">
         <v>45</v>
@@ -12450,7 +12443,7 @@
     </row>
     <row r="122" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B122" s="62" t="s">
         <v>46</v>
@@ -12557,7 +12550,7 @@
     </row>
     <row r="123" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B123" s="62" t="s">
         <v>47</v>
@@ -12664,7 +12657,7 @@
     </row>
     <row r="124" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B124" s="62" t="s">
         <v>48</v>
@@ -12771,7 +12764,7 @@
     </row>
     <row r="125" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B125" s="62" t="s">
         <v>49</v>
@@ -12878,7 +12871,7 @@
     </row>
     <row r="126" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B126" s="62" t="s">
         <v>50</v>
@@ -12985,7 +12978,7 @@
     </row>
     <row r="127" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B127" s="61" t="s">
         <v>51</v>
@@ -13097,7 +13090,7 @@
     </row>
     <row r="130" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B130" s="62" t="s">
         <v>42</v>
@@ -13204,7 +13197,7 @@
     </row>
     <row r="131" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B131" s="62" t="s">
         <v>43</v>
@@ -13311,7 +13304,7 @@
     </row>
     <row r="132" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B132" s="62" t="s">
         <v>44</v>
@@ -13418,7 +13411,7 @@
     </row>
     <row r="133" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B133" s="62" t="s">
         <v>45</v>
@@ -13525,7 +13518,7 @@
     </row>
     <row r="134" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B134" s="62" t="s">
         <v>46</v>
@@ -13632,7 +13625,7 @@
     </row>
     <row r="135" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B135" s="62" t="s">
         <v>47</v>
@@ -13739,7 +13732,7 @@
     </row>
     <row r="136" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B136" s="62" t="s">
         <v>48</v>
@@ -13846,7 +13839,7 @@
     </row>
     <row r="137" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B137" s="62" t="s">
         <v>49</v>
@@ -13953,7 +13946,7 @@
     </row>
     <row r="138" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B138" s="62" t="s">
         <v>50</v>
@@ -14060,7 +14053,7 @@
     </row>
     <row r="139" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B139" s="61" t="s">
         <v>51</v>
@@ -14167,46 +14160,46 @@
     </row>
     <row r="140" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="141" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="71" t="s">
+      <c r="B141" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C141" s="71"/>
-      <c r="D141" s="71"/>
-      <c r="E141" s="71"/>
-      <c r="F141" s="71"/>
-      <c r="G141" s="71"/>
-      <c r="H141" s="71"/>
-      <c r="I141" s="71"/>
-      <c r="J141" s="71"/>
-      <c r="K141" s="71"/>
-      <c r="L141" s="71"/>
-      <c r="M141" s="71"/>
-      <c r="N141" s="71"/>
-      <c r="O141" s="71"/>
-      <c r="P141" s="71"/>
-      <c r="Q141" s="71"/>
-      <c r="R141" s="71"/>
-      <c r="S141" s="71"/>
-      <c r="T141" s="71"/>
-      <c r="U141" s="71"/>
-      <c r="V141" s="71"/>
-      <c r="W141" s="71"/>
-      <c r="X141" s="71"/>
-      <c r="Y141" s="71"/>
-      <c r="Z141" s="71"/>
-      <c r="AA141" s="71"/>
-      <c r="AB141" s="71"/>
-      <c r="AC141" s="71"/>
-      <c r="AD141" s="71"/>
-      <c r="AE141" s="71"/>
-      <c r="AF141" s="71"/>
-      <c r="AG141" s="71"/>
-      <c r="AH141" s="71"/>
-      <c r="AI141" s="71"/>
+      <c r="C141" s="72"/>
+      <c r="D141" s="72"/>
+      <c r="E141" s="72"/>
+      <c r="F141" s="72"/>
+      <c r="G141" s="72"/>
+      <c r="H141" s="72"/>
+      <c r="I141" s="72"/>
+      <c r="J141" s="72"/>
+      <c r="K141" s="72"/>
+      <c r="L141" s="72"/>
+      <c r="M141" s="72"/>
+      <c r="N141" s="72"/>
+      <c r="O141" s="72"/>
+      <c r="P141" s="72"/>
+      <c r="Q141" s="72"/>
+      <c r="R141" s="72"/>
+      <c r="S141" s="72"/>
+      <c r="T141" s="72"/>
+      <c r="U141" s="72"/>
+      <c r="V141" s="72"/>
+      <c r="W141" s="72"/>
+      <c r="X141" s="72"/>
+      <c r="Y141" s="72"/>
+      <c r="Z141" s="72"/>
+      <c r="AA141" s="72"/>
+      <c r="AB141" s="72"/>
+      <c r="AC141" s="72"/>
+      <c r="AD141" s="72"/>
+      <c r="AE141" s="72"/>
+      <c r="AF141" s="72"/>
+      <c r="AG141" s="72"/>
+      <c r="AH141" s="72"/>
+      <c r="AI141" s="72"/>
     </row>
     <row r="142" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="30" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="143" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14216,7 +14209,7 @@
     </row>
     <row r="144" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="30" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14226,47 +14219,47 @@
     </row>
     <row r="146" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="147" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="30" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="148" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="30" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="149" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="30" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="150" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="30" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="151" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="30" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="152" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="30" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="153" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="30" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="154" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="30" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="155" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14281,17 +14274,17 @@
     </row>
     <row r="157" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="30" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="158" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="30" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="159" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="30" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -14323,7 +14316,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="58" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C1" s="60">
         <v>2019</v>
@@ -14425,10 +14418,10 @@
     <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
@@ -14436,23 +14429,23 @@
     </row>
     <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
@@ -14460,18 +14453,18 @@
     </row>
     <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B10" s="59" t="s">
         <v>1</v>
@@ -14583,7 +14576,7 @@
         <v>3</v>
       </c>
       <c r="AI12" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14703,7 +14696,7 @@
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B18" s="62" t="s">
         <v>7</v>
@@ -14810,7 +14803,7 @@
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B19" s="62" t="s">
         <v>8</v>
@@ -14917,7 +14910,7 @@
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B20" s="61" t="s">
         <v>9</v>
@@ -15034,7 +15027,7 @@
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B24" s="62" t="s">
         <v>12</v>
@@ -15141,7 +15134,7 @@
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B25" s="62" t="s">
         <v>13</v>
@@ -15248,7 +15241,7 @@
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B26" s="62" t="s">
         <v>14</v>
@@ -15365,7 +15358,7 @@
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B31" s="62" t="s">
         <v>17</v>
@@ -15472,7 +15465,7 @@
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B32" s="62" t="s">
         <v>18</v>
@@ -15579,7 +15572,7 @@
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B33" s="62" t="s">
         <v>19</v>
@@ -15686,7 +15679,7 @@
     </row>
     <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B34" s="62" t="s">
         <v>20</v>
@@ -15793,7 +15786,7 @@
     </row>
     <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B35" s="62" t="s">
         <v>21</v>
@@ -15900,7 +15893,7 @@
     </row>
     <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B36" s="62" t="s">
         <v>22</v>
@@ -16007,7 +16000,7 @@
     </row>
     <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B37" s="62" t="s">
         <v>23</v>
@@ -16114,10 +16107,10 @@
     </row>
     <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C38" s="63">
         <v>0.33322499999999999</v>
@@ -16221,10 +16214,10 @@
     </row>
     <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B39" s="62" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C39" s="63">
         <v>0.41176800000000002</v>
@@ -16328,7 +16321,7 @@
     </row>
     <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B40" s="62" t="s">
         <v>24</v>
@@ -16435,7 +16428,7 @@
     </row>
     <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B41" s="61" t="s">
         <v>25</v>
@@ -16547,7 +16540,7 @@
     </row>
     <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>17</v>
@@ -16654,7 +16647,7 @@
     </row>
     <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>18</v>
@@ -16761,7 +16754,7 @@
     </row>
     <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>19</v>
@@ -16868,7 +16861,7 @@
     </row>
     <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>21</v>
@@ -16975,7 +16968,7 @@
     </row>
     <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B48" s="62" t="s">
         <v>27</v>
@@ -17082,7 +17075,7 @@
     </row>
     <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B49" s="61" t="s">
         <v>25</v>
@@ -17194,7 +17187,7 @@
     </row>
     <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B52" s="62" t="s">
         <v>17</v>
@@ -17301,7 +17294,7 @@
     </row>
     <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B53" s="62" t="s">
         <v>19</v>
@@ -17408,7 +17401,7 @@
     </row>
     <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B54" s="62" t="s">
         <v>29</v>
@@ -17515,7 +17508,7 @@
     </row>
     <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B55" s="61" t="s">
         <v>25</v>
@@ -17622,7 +17615,7 @@
     </row>
     <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B57" s="62" t="s">
         <v>30</v>
@@ -17729,7 +17722,7 @@
     </row>
     <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B58" s="62" t="s">
         <v>31</v>
@@ -17841,7 +17834,7 @@
     </row>
     <row r="61" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B61" s="62" t="s">
         <v>17</v>
@@ -17948,7 +17941,7 @@
     </row>
     <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B62" s="62" t="s">
         <v>18</v>
@@ -18055,7 +18048,7 @@
     </row>
     <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B63" s="62" t="s">
         <v>19</v>
@@ -18162,7 +18155,7 @@
     </row>
     <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B64" s="62" t="s">
         <v>20</v>
@@ -18269,7 +18262,7 @@
     </row>
     <row r="65" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B65" s="62" t="s">
         <v>21</v>
@@ -18376,7 +18369,7 @@
     </row>
     <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B66" s="62" t="s">
         <v>22</v>
@@ -18483,7 +18476,7 @@
     </row>
     <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B67" s="62" t="s">
         <v>23</v>
@@ -18590,10 +18583,10 @@
     </row>
     <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B68" s="62" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C68" s="63">
         <v>0.33322499999999999</v>
@@ -18697,10 +18690,10 @@
     </row>
     <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B69" s="62" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C69" s="63">
         <v>0.41176800000000002</v>
@@ -18804,7 +18797,7 @@
     </row>
     <row r="70" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B70" s="62" t="s">
         <v>33</v>
@@ -18911,7 +18904,7 @@
     </row>
     <row r="71" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B71" s="61" t="s">
         <v>25</v>
@@ -19018,7 +19011,7 @@
     </row>
     <row r="73" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B73" s="61" t="s">
         <v>34</v>
@@ -19130,7 +19123,7 @@
     </row>
     <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B76" s="62" t="s">
         <v>17</v>
@@ -19237,7 +19230,7 @@
     </row>
     <row r="77" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B77" s="62" t="s">
         <v>18</v>
@@ -19344,7 +19337,7 @@
     </row>
     <row r="78" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B78" s="62" t="s">
         <v>19</v>
@@ -19451,7 +19444,7 @@
     </row>
     <row r="79" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B79" s="62" t="s">
         <v>20</v>
@@ -19558,7 +19551,7 @@
     </row>
     <row r="80" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B80" s="62" t="s">
         <v>21</v>
@@ -19665,7 +19658,7 @@
     </row>
     <row r="81" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B81" s="62" t="s">
         <v>22</v>
@@ -19772,7 +19765,7 @@
     </row>
     <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B82" s="62" t="s">
         <v>23</v>
@@ -19879,10 +19872,10 @@
     </row>
     <row r="83" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B83" s="62" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C83" s="63">
         <v>0.97241699999999998</v>
@@ -19986,10 +19979,10 @@
     </row>
     <row r="84" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B84" s="62" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C84" s="63">
         <v>1.2016230000000001</v>
@@ -20093,7 +20086,7 @@
     </row>
     <row r="85" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B85" s="62" t="s">
         <v>33</v>
@@ -20200,7 +20193,7 @@
     </row>
     <row r="86" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B86" s="61" t="s">
         <v>9</v>
@@ -20312,7 +20305,7 @@
     </row>
     <row r="89" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B89" s="62" t="s">
         <v>37</v>
@@ -20419,7 +20412,7 @@
     </row>
     <row r="90" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B90" s="62" t="s">
         <v>38</v>
@@ -20526,7 +20519,7 @@
     </row>
     <row r="91" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B91" s="62" t="s">
         <v>39</v>
@@ -20633,7 +20626,7 @@
     </row>
     <row r="92" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B92" s="61" t="s">
         <v>40</v>
@@ -20745,7 +20738,7 @@
     </row>
     <row r="95" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B95" s="62" t="s">
         <v>42</v>
@@ -20852,7 +20845,7 @@
     </row>
     <row r="96" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B96" s="62" t="s">
         <v>43</v>
@@ -20959,7 +20952,7 @@
     </row>
     <row r="97" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B97" s="62" t="s">
         <v>44</v>
@@ -21066,7 +21059,7 @@
     </row>
     <row r="98" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B98" s="62" t="s">
         <v>45</v>
@@ -21173,7 +21166,7 @@
     </row>
     <row r="99" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B99" s="62" t="s">
         <v>46</v>
@@ -21280,7 +21273,7 @@
     </row>
     <row r="100" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B100" s="62" t="s">
         <v>47</v>
@@ -21387,7 +21380,7 @@
     </row>
     <row r="101" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B101" s="62" t="s">
         <v>48</v>
@@ -21494,7 +21487,7 @@
     </row>
     <row r="102" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B102" s="62" t="s">
         <v>49</v>
@@ -21601,7 +21594,7 @@
     </row>
     <row r="103" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B103" s="62" t="s">
         <v>50</v>
@@ -21708,7 +21701,7 @@
     </row>
     <row r="104" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B104" s="61" t="s">
         <v>51</v>
@@ -21820,7 +21813,7 @@
     </row>
     <row r="107" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B107" s="62" t="s">
         <v>42</v>
@@ -21927,7 +21920,7 @@
     </row>
     <row r="108" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B108" s="62" t="s">
         <v>43</v>
@@ -22034,7 +22027,7 @@
     </row>
     <row r="109" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B109" s="62" t="s">
         <v>44</v>
@@ -22141,7 +22134,7 @@
     </row>
     <row r="110" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B110" s="62" t="s">
         <v>45</v>
@@ -22248,7 +22241,7 @@
     </row>
     <row r="111" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B111" s="62" t="s">
         <v>46</v>
@@ -22355,7 +22348,7 @@
     </row>
     <row r="112" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B112" s="62" t="s">
         <v>47</v>
@@ -22462,7 +22455,7 @@
     </row>
     <row r="113" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B113" s="62" t="s">
         <v>48</v>
@@ -22569,7 +22562,7 @@
     </row>
     <row r="114" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B114" s="62" t="s">
         <v>49</v>
@@ -22676,7 +22669,7 @@
     </row>
     <row r="115" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B115" s="62" t="s">
         <v>50</v>
@@ -22783,7 +22776,7 @@
     </row>
     <row r="116" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B116" s="61" t="s">
         <v>51</v>
@@ -22890,42 +22883,42 @@
     </row>
     <row r="117" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="118" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="71" t="s">
+      <c r="B118" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="C118" s="71"/>
-      <c r="D118" s="71"/>
-      <c r="E118" s="71"/>
-      <c r="F118" s="71"/>
-      <c r="G118" s="71"/>
-      <c r="H118" s="71"/>
-      <c r="I118" s="71"/>
-      <c r="J118" s="71"/>
-      <c r="K118" s="71"/>
-      <c r="L118" s="71"/>
-      <c r="M118" s="71"/>
-      <c r="N118" s="71"/>
-      <c r="O118" s="71"/>
-      <c r="P118" s="71"/>
-      <c r="Q118" s="71"/>
-      <c r="R118" s="71"/>
-      <c r="S118" s="71"/>
-      <c r="T118" s="71"/>
-      <c r="U118" s="71"/>
-      <c r="V118" s="71"/>
-      <c r="W118" s="71"/>
-      <c r="X118" s="71"/>
-      <c r="Y118" s="71"/>
-      <c r="Z118" s="71"/>
-      <c r="AA118" s="71"/>
-      <c r="AB118" s="71"/>
-      <c r="AC118" s="71"/>
-      <c r="AD118" s="71"/>
-      <c r="AE118" s="71"/>
-      <c r="AF118" s="71"/>
-      <c r="AG118" s="71"/>
-      <c r="AH118" s="71"/>
-      <c r="AI118" s="71"/>
+      <c r="C118" s="72"/>
+      <c r="D118" s="72"/>
+      <c r="E118" s="72"/>
+      <c r="F118" s="72"/>
+      <c r="G118" s="72"/>
+      <c r="H118" s="72"/>
+      <c r="I118" s="72"/>
+      <c r="J118" s="72"/>
+      <c r="K118" s="72"/>
+      <c r="L118" s="72"/>
+      <c r="M118" s="72"/>
+      <c r="N118" s="72"/>
+      <c r="O118" s="72"/>
+      <c r="P118" s="72"/>
+      <c r="Q118" s="72"/>
+      <c r="R118" s="72"/>
+      <c r="S118" s="72"/>
+      <c r="T118" s="72"/>
+      <c r="U118" s="72"/>
+      <c r="V118" s="72"/>
+      <c r="W118" s="72"/>
+      <c r="X118" s="72"/>
+      <c r="Y118" s="72"/>
+      <c r="Z118" s="72"/>
+      <c r="AA118" s="72"/>
+      <c r="AB118" s="72"/>
+      <c r="AC118" s="72"/>
+      <c r="AD118" s="72"/>
+      <c r="AE118" s="72"/>
+      <c r="AF118" s="72"/>
+      <c r="AG118" s="72"/>
+      <c r="AH118" s="72"/>
+      <c r="AI118" s="72"/>
     </row>
     <row r="119" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="30" t="s">
@@ -22969,17 +22962,17 @@
     </row>
     <row r="127" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="30" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="128" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="30" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="30" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22994,17 +22987,17 @@
     </row>
     <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="30" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="30" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="30" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -23069,12 +23062,12 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -23467,7 +23460,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -23477,62 +23470,62 @@
       <c r="G1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
-        <v>430</v>
-      </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="A2" s="73" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32"/>
-      <c r="B3" s="74" t="s">
-        <v>431</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
+      <c r="B3" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
     </row>
     <row r="4" spans="1:7" s="12" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
-      <c r="C4" s="76" t="s">
-        <v>432</v>
-      </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
+      <c r="C4" s="77" t="s">
+        <v>431</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>433</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="D5" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="E5" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="F5" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="G5" s="35" t="s">
         <v>437</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B6" s="37">
         <v>118.2</v>
@@ -23555,7 +23548,7 @@
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B7" s="39" t="s">
         <v>3</v>
@@ -23578,7 +23571,7 @@
     </row>
     <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="41">
         <v>21</v>
@@ -23601,7 +23594,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" s="41">
         <v>5.6</v>
@@ -23619,12 +23612,12 @@
         <v>1</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="41">
         <v>15.4</v>
@@ -23647,7 +23640,7 @@
     </row>
     <row r="11" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" s="41">
         <v>26.4</v>
@@ -23670,7 +23663,7 @@
     </row>
     <row r="12" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" s="41">
         <v>18.100000000000001</v>
@@ -23693,7 +23686,7 @@
     </row>
     <row r="13" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" s="41">
         <v>8.3000000000000007</v>
@@ -23716,7 +23709,7 @@
     </row>
     <row r="14" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" s="41">
         <v>44.4</v>
@@ -23739,7 +23732,7 @@
     </row>
     <row r="15" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" s="41">
         <v>23.5</v>
@@ -23762,7 +23755,7 @@
     </row>
     <row r="16" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" s="41">
         <v>7.2</v>
@@ -23785,7 +23778,7 @@
     </row>
     <row r="17" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" s="41">
         <v>13.8</v>
@@ -23808,7 +23801,7 @@
     </row>
     <row r="18" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" s="41">
         <v>26.4</v>
@@ -23831,7 +23824,7 @@
     </row>
     <row r="19" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="41">
         <v>8.5</v>
@@ -23854,7 +23847,7 @@
     </row>
     <row r="20" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="41">
         <v>4.2</v>
@@ -23866,7 +23859,7 @@
         <v>0.2</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F20" s="41">
         <v>0.6</v>
@@ -23877,7 +23870,7 @@
     </row>
     <row r="21" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21" s="41">
         <v>4.3</v>
@@ -23889,18 +23882,18 @@
         <v>0.2</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F21" s="41">
         <v>0.7</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B22" s="41">
         <v>17.899999999999999</v>
@@ -23923,7 +23916,7 @@
     </row>
     <row r="23" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>3</v>
@@ -23946,7 +23939,7 @@
     </row>
     <row r="24" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B24" s="41">
         <v>94.7</v>
@@ -23969,7 +23962,7 @@
     </row>
     <row r="25" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B25" s="41">
         <v>82.2</v>
@@ -23992,7 +23985,7 @@
     </row>
     <row r="26" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B26" s="41">
         <v>12.5</v>
@@ -24015,7 +24008,7 @@
     </row>
     <row r="27" spans="1:10" s="18" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B27" s="41">
         <v>23.5</v>
@@ -24038,7 +24031,7 @@
     </row>
     <row r="28" spans="1:10" s="18" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B28" s="39" t="s">
         <v>3</v>
@@ -24061,7 +24054,7 @@
     </row>
     <row r="29" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" s="41">
         <v>98.5</v>
@@ -24084,7 +24077,7 @@
     </row>
     <row r="30" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="41">
         <v>12.3</v>
@@ -24107,7 +24100,7 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B31" s="41">
         <v>7.4</v>
@@ -24116,13 +24109,13 @@
         <v>5.2</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E31" s="41">
         <v>0.5</v>
       </c>
       <c r="F31" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G31" s="41">
         <v>1.1000000000000001</v>
@@ -24133,7 +24126,7 @@
     </row>
     <row r="32" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B32" s="39" t="s">
         <v>3</v>
@@ -24159,7 +24152,7 @@
     </row>
     <row r="33" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B33" s="41">
         <v>42.5</v>
@@ -24185,7 +24178,7 @@
     </row>
     <row r="34" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B34" s="41">
         <v>33.5</v>
@@ -24211,7 +24204,7 @@
     </row>
     <row r="35" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B35" s="41">
         <v>12.7</v>
@@ -24234,7 +24227,7 @@
     </row>
     <row r="36" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B36" s="41">
         <v>22.8</v>
@@ -24257,7 +24250,7 @@
     </row>
     <row r="37" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B37" s="41">
         <v>6.7</v>
@@ -24280,7 +24273,7 @@
     </row>
     <row r="38" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B38" s="39" t="s">
         <v>3</v>
@@ -24303,7 +24296,7 @@
     </row>
     <row r="39" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B39" s="41">
         <v>20.8</v>
@@ -24321,12 +24314,12 @@
         <v>3.1</v>
       </c>
       <c r="G39" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B40" s="41">
         <v>12.6</v>
@@ -24344,12 +24337,12 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B41" s="41">
         <v>12.8</v>
@@ -24372,7 +24365,7 @@
     </row>
     <row r="42" spans="1:10" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B42" s="41">
         <v>18.3</v>
@@ -24395,7 +24388,7 @@
     </row>
     <row r="43" spans="1:10" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B43" s="41">
         <v>16</v>
@@ -24418,7 +24411,7 @@
     </row>
     <row r="44" spans="1:10" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B44" s="41">
         <v>16.8</v>
@@ -24441,7 +24434,7 @@
     </row>
     <row r="45" spans="1:10" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B45" s="41">
         <v>17</v>
@@ -24464,7 +24457,7 @@
     </row>
     <row r="46" spans="1:10" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="40" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B46" s="41">
         <v>3.8</v>
@@ -24476,7 +24469,7 @@
         <v>0.3</v>
       </c>
       <c r="E46" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F46" s="41">
         <v>0.9</v>
@@ -24487,7 +24480,7 @@
     </row>
     <row r="47" spans="1:10" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B47" s="39" t="s">
         <v>3</v>
@@ -24510,7 +24503,7 @@
     </row>
     <row r="48" spans="1:10" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B48" s="41">
         <v>47.5</v>
@@ -24522,18 +24515,18 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E48" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F48" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G48" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B49" s="41">
         <v>29.5</v>
@@ -24545,18 +24538,18 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E49" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F49" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G49" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B50" s="41">
         <v>1.8</v>
@@ -24568,18 +24561,18 @@
         <v>0.5</v>
       </c>
       <c r="E50" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F50" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G50" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B51" s="41">
         <v>2.1</v>
@@ -24588,30 +24581,30 @@
         <v>2</v>
       </c>
       <c r="D51" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E51" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F51" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G51" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B52" s="41">
         <v>37.299999999999997</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E52" s="41">
         <v>9.4</v>
@@ -24625,7 +24618,7 @@
     </row>
     <row r="53" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B53" s="46" t="s">
         <v>3</v>
@@ -24648,7 +24641,7 @@
     </row>
     <row r="54" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="40" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B54" s="47">
         <v>40.200000000000003</v>
@@ -24671,7 +24664,7 @@
     </row>
     <row r="55" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B55" s="47">
         <v>32.9</v>
@@ -24694,7 +24687,7 @@
     </row>
     <row r="56" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B56" s="47">
         <v>18</v>
@@ -24717,7 +24710,7 @@
     </row>
     <row r="57" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B57" s="47">
         <v>15.3</v>
@@ -24735,12 +24728,12 @@
         <v>3.4</v>
       </c>
       <c r="G57" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="40" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B58" s="47">
         <v>6.7</v>
@@ -24758,12 +24751,12 @@
         <v>3</v>
       </c>
       <c r="G58" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B59" s="47">
         <v>3</v>
@@ -24775,18 +24768,18 @@
         <v>0.2</v>
       </c>
       <c r="E59" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F59" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G59" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B60" s="47">
         <v>1.4</v>
@@ -24795,21 +24788,21 @@
         <v>0.9</v>
       </c>
       <c r="D60" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E60" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F60" s="47">
         <v>0.3</v>
       </c>
       <c r="G60" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B61" s="47">
         <v>0.7</v>
@@ -24818,21 +24811,21 @@
         <v>0.5</v>
       </c>
       <c r="D61" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E61" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F61" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G61" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B62" s="46" t="s">
         <v>3</v>
@@ -24855,7 +24848,7 @@
     </row>
     <row r="63" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B63" s="47">
         <v>73.099999999999994</v>
@@ -24870,7 +24863,7 @@
         <v>6.4</v>
       </c>
       <c r="F63" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G63" s="47">
         <v>2.4</v>
@@ -24878,7 +24871,7 @@
     </row>
     <row r="64" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B64" s="47">
         <v>9.8000000000000007</v>
@@ -24893,7 +24886,7 @@
         <v>0.5</v>
       </c>
       <c r="F64" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G64" s="47">
         <v>3.7</v>
@@ -24901,7 +24894,7 @@
     </row>
     <row r="65" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B65" s="47">
         <v>5.4</v>
@@ -24916,15 +24909,15 @@
         <v>0.8</v>
       </c>
       <c r="F65" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G65" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B66" s="47">
         <v>4.4000000000000004</v>
@@ -24939,15 +24932,15 @@
         <v>0.7</v>
       </c>
       <c r="F66" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G66" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="40" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B67" s="47">
         <v>1.8</v>
@@ -24956,21 +24949,21 @@
         <v>1.3</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E67" s="47">
         <v>0.5</v>
       </c>
       <c r="F67" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G67" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B68" s="47">
         <v>1.2</v>
@@ -24979,21 +24972,21 @@
         <v>0.7</v>
       </c>
       <c r="D68" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E68" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F68" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G68" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B69" s="47">
         <v>1.3</v>
@@ -25005,41 +24998,41 @@
         <v>0.3</v>
       </c>
       <c r="E69" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F69" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G69" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="40" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B70" s="47">
         <v>21.1</v>
       </c>
       <c r="C70" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D70" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E70" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F70" s="47">
         <v>21.1</v>
       </c>
       <c r="G70" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="44" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B71" s="46" t="s">
         <v>3</v>
@@ -25062,16 +25055,16 @@
     </row>
     <row r="72" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B72" s="47">
         <v>5.3</v>
       </c>
       <c r="C72" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D72" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E72" s="47">
         <v>1</v>
@@ -25080,7 +25073,7 @@
         <v>4.2</v>
       </c>
       <c r="G72" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25189,7 +25182,7 @@
         <v>0.9</v>
       </c>
       <c r="E77" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F77" s="47">
         <v>0.3</v>
@@ -25212,10 +25205,10 @@
         <v>0.6</v>
       </c>
       <c r="E78" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F78" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G78" s="47">
         <v>0.3</v>
@@ -25223,7 +25216,7 @@
     </row>
     <row r="79" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B79" s="47">
         <v>16</v>
@@ -25235,10 +25228,10 @@
         <v>0.3</v>
       </c>
       <c r="E79" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F79" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G79" s="47">
         <v>0.3</v>
@@ -25246,7 +25239,7 @@
     </row>
     <row r="80" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B80" s="44" t="s">
         <v>3</v>
@@ -25275,10 +25268,10 @@
         <v>3.2</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D81" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E81" s="47">
         <v>0.7</v>
@@ -25287,7 +25280,7 @@
         <v>2.4</v>
       </c>
       <c r="G81" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25373,7 +25366,7 @@
         <v>0.5</v>
       </c>
       <c r="E85" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F85" s="47">
         <v>0.4</v>
@@ -25384,7 +25377,7 @@
     </row>
     <row r="86" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B86" s="47">
         <v>5.3</v>
@@ -25393,21 +25386,21 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E86" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F86" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G86" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="44" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B87" s="46" t="s">
         <v>3</v>
@@ -25522,7 +25515,7 @@
     </row>
     <row r="92" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B92" s="47">
         <v>22.4</v>
@@ -25534,7 +25527,7 @@
         <v>0.8</v>
       </c>
       <c r="E92" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F92" s="47">
         <v>0.4</v>
@@ -25545,7 +25538,7 @@
     </row>
     <row r="93" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="44" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B93" s="46" t="s">
         <v>3</v>
@@ -25571,22 +25564,22 @@
         <v>0</v>
       </c>
       <c r="B94" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C94" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E94" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F94" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G94" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25637,7 +25630,7 @@
     </row>
     <row r="97" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B97" s="47">
         <v>12.9</v>
@@ -25649,18 +25642,18 @@
         <v>0.6</v>
       </c>
       <c r="E97" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F97" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G97" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="44" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B98" s="46" t="s">
         <v>3</v>
@@ -25729,7 +25722,7 @@
     </row>
     <row r="101" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B101" s="47">
         <v>2.2000000000000002</v>
@@ -25738,21 +25731,21 @@
         <v>2</v>
       </c>
       <c r="D101" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E101" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F101" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G101" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B102" s="46" t="s">
         <v>3</v>
@@ -25775,7 +25768,7 @@
     </row>
     <row r="103" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B103" s="47">
         <v>35.200000000000003</v>
@@ -25787,18 +25780,18 @@
         <v>2.8</v>
       </c>
       <c r="E103" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F103" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G103" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B104" s="47">
         <v>20.6</v>
@@ -25810,18 +25803,18 @@
         <v>1.9</v>
       </c>
       <c r="E104" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F104" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G104" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="42" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B105" s="47">
         <v>14.6</v>
@@ -25833,18 +25826,18 @@
         <v>0.9</v>
       </c>
       <c r="E105" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F105" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G105" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B106" s="47">
         <v>45.7</v>
@@ -25856,27 +25849,27 @@
         <v>4.2</v>
       </c>
       <c r="E106" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F106" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G106" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B107" s="47">
         <v>37.299999999999997</v>
       </c>
       <c r="C107" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D107" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E107" s="47">
         <v>9.4</v>
@@ -25890,7 +25883,7 @@
     </row>
     <row r="108" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="44" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B108" s="46" t="s">
         <v>3</v>
@@ -25913,7 +25906,7 @@
     </row>
     <row r="109" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B109" s="47">
         <v>45.3</v>
@@ -25925,18 +25918,18 @@
         <v>2.6</v>
       </c>
       <c r="E109" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F109" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G109" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="42" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B110" s="47">
         <v>7.5</v>
@@ -25948,18 +25941,18 @@
         <v>0.5</v>
       </c>
       <c r="E110" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F110" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G110" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B111" s="47">
         <v>37.9</v>
@@ -25971,18 +25964,18 @@
         <v>2.1</v>
       </c>
       <c r="E111" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F111" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G111" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B112" s="47">
         <v>35.5</v>
@@ -25994,27 +25987,27 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E112" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F112" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G112" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="48" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B113" s="47">
         <v>37.299999999999997</v>
       </c>
       <c r="C113" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D113" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E113" s="47">
         <v>9.4</v>
@@ -26028,7 +26021,7 @@
     </row>
     <row r="114" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="44" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B114" s="46" t="s">
         <v>3</v>
@@ -26051,7 +26044,7 @@
     </row>
     <row r="115" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B115" s="47">
         <v>46.9</v>
@@ -26063,18 +26056,18 @@
         <v>3.1</v>
       </c>
       <c r="E115" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F115" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G115" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B116" s="47">
         <v>11.4</v>
@@ -26086,18 +26079,18 @@
         <v>1.5</v>
       </c>
       <c r="E116" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F116" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G116" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B117" s="47">
         <v>30.3</v>
@@ -26109,18 +26102,18 @@
         <v>1.6</v>
       </c>
       <c r="E117" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F117" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G117" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="42" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B118" s="47">
         <v>5.2</v>
@@ -26129,21 +26122,21 @@
         <v>5.2</v>
       </c>
       <c r="D118" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E118" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F118" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G118" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B119" s="41">
         <v>34</v>
@@ -26155,27 +26148,27 @@
         <v>4</v>
       </c>
       <c r="E119" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F119" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G119" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="48" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B120" s="41">
         <v>37.299999999999997</v>
       </c>
       <c r="C120" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D120" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E120" s="41">
         <v>9.4</v>
@@ -26189,7 +26182,7 @@
     </row>
     <row r="121" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="44" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B121" s="46" t="s">
         <v>3</v>
@@ -26212,7 +26205,7 @@
     </row>
     <row r="122" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="40" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B122" s="47">
         <v>37.5</v>
@@ -26235,7 +26228,7 @@
     </row>
     <row r="123" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="45" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B123" s="47">
         <v>57.9</v>
@@ -26258,7 +26251,7 @@
     </row>
     <row r="124" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="45" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B124" s="47">
         <v>20.9</v>
@@ -26281,7 +26274,7 @@
     </row>
     <row r="125" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="40" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B125" s="47">
         <v>1.9</v>
@@ -26290,21 +26283,21 @@
         <v>0.6</v>
       </c>
       <c r="D125" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E125" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F125" s="47">
         <v>0.9</v>
       </c>
       <c r="G125" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="44" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B126" s="46" t="s">
         <v>3</v>
@@ -26327,7 +26320,7 @@
     </row>
     <row r="127" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B127" s="47">
         <v>56</v>
@@ -26350,7 +26343,7 @@
     </row>
     <row r="128" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="45" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B128" s="47">
         <v>48.4</v>
@@ -26373,7 +26366,7 @@
     </row>
     <row r="129" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="45" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B129" s="47">
         <v>9</v>
@@ -26396,7 +26389,7 @@
     </row>
     <row r="130" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="45" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B130" s="47">
         <v>4.8</v>
@@ -26419,7 +26412,7 @@
     </row>
     <row r="131" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="44" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B131" s="46" t="s">
         <v>3</v>
@@ -26442,7 +26435,7 @@
     </row>
     <row r="132" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B132" s="47">
         <v>38.200000000000003</v>
@@ -26460,12 +26453,12 @@
         <v>4.2</v>
       </c>
       <c r="G132" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B133" s="47">
         <v>73.3</v>
@@ -26483,27 +26476,27 @@
         <v>16.899999999999999</v>
       </c>
       <c r="G133" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B134" s="47">
         <v>6.8</v>
       </c>
       <c r="C134" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D134" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E134" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F134" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G134" s="47">
         <v>6.8</v>
@@ -26511,7 +26504,7 @@
     </row>
     <row r="135" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="44" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B135" s="46" t="s">
         <v>3</v>
@@ -26534,13 +26527,13 @@
     </row>
     <row r="136" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="40" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B136" s="47">
         <v>5.8</v>
       </c>
       <c r="C136" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D136" s="47">
         <v>0.1</v>
@@ -26552,12 +26545,12 @@
         <v>4.8</v>
       </c>
       <c r="G136" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="45" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B137" s="47">
         <v>17.8</v>
@@ -26575,12 +26568,12 @@
         <v>10.6</v>
       </c>
       <c r="G137" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="45" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B138" s="47">
         <v>28.2</v>
@@ -26603,7 +26596,7 @@
     </row>
     <row r="139" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="49" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B139" s="47">
         <v>37.6</v>
@@ -26626,7 +26619,7 @@
     </row>
     <row r="140" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="49" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B140" s="47">
         <v>12.9</v>
@@ -26641,7 +26634,7 @@
         <v>0.4</v>
       </c>
       <c r="F140" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G140" s="47">
         <v>0.5</v>
@@ -26649,7 +26642,7 @@
     </row>
     <row r="141" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="49" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B141" s="47">
         <v>12.2</v>
@@ -26661,18 +26654,18 @@
         <v>0.4</v>
       </c>
       <c r="E141" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F141" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G141" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B142" s="47">
         <v>3.7</v>
@@ -26681,21 +26674,21 @@
         <v>3.7</v>
       </c>
       <c r="D142" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E142" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F142" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G142" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="44" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B143" s="46" t="s">
         <v>3</v>
@@ -26718,7 +26711,7 @@
     </row>
     <row r="144" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="40" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B144" s="47">
         <v>48.7</v>
@@ -26741,7 +26734,7 @@
     </row>
     <row r="145" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B145" s="47">
         <v>68.3</v>
@@ -26764,7 +26757,7 @@
     </row>
     <row r="146" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="45" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B146" s="47">
         <v>1.2</v>
@@ -26773,21 +26766,21 @@
         <v>0.9</v>
       </c>
       <c r="D146" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E146" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F146" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G146" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="44" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B147" s="46" t="s">
         <v>3</v>
@@ -26810,7 +26803,7 @@
     </row>
     <row r="148" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="45" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B148" s="47">
         <v>47.7</v>
@@ -26833,7 +26826,7 @@
     </row>
     <row r="149" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B149" s="47">
         <v>41.9</v>
@@ -26856,7 +26849,7 @@
     </row>
     <row r="150" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="45" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B150" s="47">
         <v>25.3</v>
@@ -26879,7 +26872,7 @@
     </row>
     <row r="151" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B151" s="47">
         <v>2</v>
@@ -26891,18 +26884,18 @@
         <v>0.1</v>
       </c>
       <c r="E151" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F151" s="47">
         <v>0.6</v>
       </c>
       <c r="G151" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B152" s="47">
         <v>1.4</v>
@@ -26911,21 +26904,21 @@
         <v>1.2</v>
       </c>
       <c r="D152" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E152" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F152" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G152" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="44" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B153" s="46" t="s">
         <v>3</v>
@@ -27006,18 +26999,18 @@
         <v>0.7</v>
       </c>
       <c r="E156" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F156" s="41">
         <v>0.9</v>
       </c>
       <c r="G156" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="48" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B157" s="41">
         <v>2.9</v>
@@ -27029,18 +27022,18 @@
         <v>0.2</v>
       </c>
       <c r="E157" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F157" s="41">
         <v>0.2</v>
       </c>
       <c r="G157" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="44" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B158" s="46" t="s">
         <v>3</v>
@@ -27063,7 +27056,7 @@
     </row>
     <row r="159" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B159" s="47">
         <v>8.9</v>
@@ -27086,7 +27079,7 @@
     </row>
     <row r="160" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B160" s="47">
         <v>94.6</v>
@@ -27109,7 +27102,7 @@
     </row>
     <row r="161" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="45" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B161" s="41">
         <v>14.7</v>
@@ -27132,7 +27125,7 @@
     </row>
     <row r="162" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="44" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B162" s="46" t="s">
         <v>3</v>
@@ -27155,7 +27148,7 @@
     </row>
     <row r="163" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B163" s="47">
         <v>26.1</v>
@@ -27178,7 +27171,7 @@
     </row>
     <row r="164" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B164" s="47">
         <v>57.9</v>
@@ -27201,7 +27194,7 @@
     </row>
     <row r="165" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="45" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B165" s="41">
         <v>34.200000000000003</v>
@@ -27224,7 +27217,7 @@
     </row>
     <row r="166" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="44" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B166" s="46" t="s">
         <v>3</v>
@@ -27247,7 +27240,7 @@
     </row>
     <row r="167" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B167" s="47">
         <v>56.4</v>
@@ -27262,7 +27255,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F167" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G167" s="47">
         <v>2.4</v>
@@ -27270,7 +27263,7 @@
     </row>
     <row r="168" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B168" s="47">
         <v>40.6</v>
@@ -27285,7 +27278,7 @@
         <v>7.2</v>
       </c>
       <c r="F168" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G168" s="47">
         <v>4.4000000000000004</v>
@@ -27293,30 +27286,30 @@
     </row>
     <row r="169" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="40" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B169" s="47">
         <v>21.1</v>
       </c>
       <c r="C169" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D169" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E169" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F169" s="47">
         <v>21.1</v>
       </c>
       <c r="G169" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="44" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B170" s="46" t="s">
         <v>3</v>
@@ -27339,7 +27332,7 @@
     </row>
     <row r="171" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B171" s="47">
         <v>81.900000000000006</v>
@@ -27362,7 +27355,7 @@
     </row>
     <row r="172" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="42" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B172" s="47">
         <v>68.599999999999994</v>
@@ -27385,7 +27378,7 @@
     </row>
     <row r="173" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="42" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B173" s="47">
         <v>13.3</v>
@@ -27408,7 +27401,7 @@
     </row>
     <row r="174" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B174" s="47">
         <v>36.299999999999997</v>
@@ -27431,7 +27424,7 @@
     </row>
     <row r="175" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="44" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B175" s="39" t="s">
         <v>3</v>
@@ -27454,7 +27447,7 @@
     </row>
     <row r="176" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B176" s="41">
         <v>1.5</v>
@@ -27463,21 +27456,21 @@
         <v>1.5</v>
       </c>
       <c r="D176" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E176" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F176" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G176" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B177" s="41">
         <v>86.2</v>
@@ -27489,10 +27482,10 @@
         <v>7</v>
       </c>
       <c r="E177" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F177" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G177" s="41">
         <v>6.8</v>
@@ -27500,16 +27493,16 @@
     </row>
     <row r="178" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="40" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B178" s="41">
         <v>30.5</v>
       </c>
       <c r="C178" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D178" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E178" s="41">
         <v>9.4</v>
@@ -27518,12 +27511,12 @@
         <v>21.1</v>
       </c>
       <c r="G178" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="44" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B179" s="46" t="s">
         <v>3</v>
@@ -27546,7 +27539,7 @@
     </row>
     <row r="180" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B180" s="47">
         <v>12.6</v>
@@ -27561,7 +27554,7 @@
         <v>0.3</v>
       </c>
       <c r="F180" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G180" s="47">
         <v>0.8</v>
@@ -27569,7 +27562,7 @@
     </row>
     <row r="181" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B181" s="47">
         <v>84.5</v>
@@ -27584,7 +27577,7 @@
         <v>9.1</v>
       </c>
       <c r="F181" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G181" s="47">
         <v>6</v>
@@ -27592,30 +27585,30 @@
     </row>
     <row r="182" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="40" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B182" s="47">
         <v>21.1</v>
       </c>
       <c r="C182" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D182" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E182" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F182" s="47">
         <v>21.1</v>
       </c>
       <c r="G182" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B183" s="46" t="s">
         <v>3</v>
@@ -27638,7 +27631,7 @@
     </row>
     <row r="184" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B184" s="47">
         <v>8.3000000000000007</v>
@@ -27647,21 +27640,21 @@
         <v>8.1</v>
       </c>
       <c r="D184" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E184" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F184" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G184" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B185" s="47">
         <v>79.3</v>
@@ -27673,10 +27666,10 @@
         <v>6.9</v>
       </c>
       <c r="E185" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F185" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G185" s="47">
         <v>6.7</v>
@@ -27684,16 +27677,16 @@
     </row>
     <row r="186" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="45" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B186" s="47">
         <v>30.5</v>
       </c>
       <c r="C186" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D186" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E186" s="47">
         <v>9.4</v>
@@ -27702,12 +27695,12 @@
         <v>21.1</v>
       </c>
       <c r="G186" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="50" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B187" s="39" t="s">
         <v>3</v>
@@ -27730,7 +27723,7 @@
     </row>
     <row r="188" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="42" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B188" s="47">
         <v>2.7</v>
@@ -27739,21 +27732,21 @@
         <v>2.6</v>
       </c>
       <c r="D188" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E188" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F188" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G188" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="42" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B189" s="47">
         <v>4.7</v>
@@ -27762,21 +27755,21 @@
         <v>4.7</v>
       </c>
       <c r="D189" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E189" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F189" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G189" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="42" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B190" s="47">
         <v>0.8</v>
@@ -27785,21 +27778,21 @@
         <v>0.8</v>
       </c>
       <c r="D190" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E190" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F190" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G190" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="42" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B191" s="47">
         <v>79.3</v>
@@ -27811,10 +27804,10 @@
         <v>6.9</v>
       </c>
       <c r="E191" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F191" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G191" s="47">
         <v>6.7</v>
@@ -27822,16 +27815,16 @@
     </row>
     <row r="192" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="42" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B192" s="47">
         <v>30.5</v>
       </c>
       <c r="C192" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D192" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E192" s="47">
         <v>9.4</v>
@@ -27840,12 +27833,12 @@
         <v>21.1</v>
       </c>
       <c r="G192" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="50" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B193" s="46" t="s">
         <v>3</v>
@@ -27868,7 +27861,7 @@
     </row>
     <row r="194" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="42" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B194" s="47">
         <v>2.5</v>
@@ -27877,21 +27870,21 @@
         <v>2.5</v>
       </c>
       <c r="D194" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E194" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F194" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G194" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B195" s="47">
         <v>0.7</v>
@@ -27900,21 +27893,21 @@
         <v>0.7</v>
       </c>
       <c r="D195" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E195" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F195" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G195" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="43" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B196" s="47">
         <v>1.1000000000000001</v>
@@ -27923,21 +27916,21 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D196" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E196" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F196" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G196" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="43" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B197" s="47">
         <v>0.3</v>
@@ -27946,21 +27939,21 @@
         <v>0.3</v>
       </c>
       <c r="D197" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E197" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F197" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G197" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="43" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B198" s="47">
         <v>0.3</v>
@@ -27969,44 +27962,44 @@
         <v>0.3</v>
       </c>
       <c r="D198" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E198" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F198" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G198" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="43" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B199" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C199" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D199" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E199" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F199" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G199" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="42" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B200" s="47">
         <v>5.4</v>
@@ -28015,21 +28008,21 @@
         <v>5.3</v>
       </c>
       <c r="D200" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E200" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F200" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G200" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="42" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B201" s="47">
         <v>79.3</v>
@@ -28041,10 +28034,10 @@
         <v>6.9</v>
       </c>
       <c r="E201" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F201" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G201" s="47">
         <v>6.7</v>
@@ -28052,16 +28045,16 @@
     </row>
     <row r="202" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="42" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B202" s="47">
         <v>30.5</v>
       </c>
       <c r="C202" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D202" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E202" s="47">
         <v>9.4</v>
@@ -28070,12 +28063,12 @@
         <v>21.1</v>
       </c>
       <c r="G202" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="44" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B203" s="39" t="s">
         <v>3</v>
@@ -28098,7 +28091,7 @@
     </row>
     <row r="204" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B204" s="47">
         <v>8.4</v>
@@ -28110,7 +28103,7 @@
         <v>0.3</v>
       </c>
       <c r="E204" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F204" s="47">
         <v>0.3</v>
@@ -28121,7 +28114,7 @@
     </row>
     <row r="205" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B205" s="47">
         <v>109.8</v>
@@ -28144,7 +28137,7 @@
     </row>
     <row r="206" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="50" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B206" s="39" t="s">
         <v>3</v>
@@ -28167,7 +28160,7 @@
     </row>
     <row r="207" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="42" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B207" s="47">
         <v>4</v>
@@ -28176,21 +28169,21 @@
         <v>3.3</v>
       </c>
       <c r="D207" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E207" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F207" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G207" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="42" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B208" s="47">
         <v>1.6</v>
@@ -28199,21 +28192,21 @@
         <v>1.5</v>
       </c>
       <c r="D208" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E208" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F208" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G208" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="42" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B209" s="47">
         <v>2.9</v>
@@ -28222,21 +28215,21 @@
         <v>2.5</v>
       </c>
       <c r="D209" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E209" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F209" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G209" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B210" s="47">
         <v>109.8</v>
@@ -28259,7 +28252,7 @@
     </row>
     <row r="211" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="50" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B211" s="39" t="s">
         <v>3</v>
@@ -28282,7 +28275,7 @@
     </row>
     <row r="212" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="42" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B212" s="47">
         <v>4</v>
@@ -28291,21 +28284,21 @@
         <v>3.6</v>
       </c>
       <c r="D212" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E212" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F212" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G212" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="42" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B213" s="47">
         <v>1.6</v>
@@ -28314,21 +28307,21 @@
         <v>1.4</v>
       </c>
       <c r="D213" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E213" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F213" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G213" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B214" s="47">
         <v>0.3</v>
@@ -28337,21 +28330,21 @@
         <v>0.3</v>
       </c>
       <c r="D214" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E214" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F214" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G214" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="42" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B215" s="47">
         <v>2.5</v>
@@ -28360,21 +28353,21 @@
         <v>2</v>
       </c>
       <c r="D215" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E215" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F215" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G215" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B216" s="47">
         <v>109.8</v>
@@ -28397,7 +28390,7 @@
     </row>
     <row r="217" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B217" s="46" t="s">
         <v>3</v>
@@ -28420,7 +28413,7 @@
     </row>
     <row r="218" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="40" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B218" s="41">
         <v>5.6</v>
@@ -28432,10 +28425,10 @@
         <v>0.3</v>
       </c>
       <c r="E218" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F218" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G218" s="41">
         <v>0.3</v>
@@ -28443,7 +28436,7 @@
     </row>
     <row r="219" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="45" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B219" s="41">
         <v>2.4</v>
@@ -28452,21 +28445,21 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D219" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E219" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F219" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G219" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="45" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B220" s="41">
         <v>4.2</v>
@@ -28478,18 +28471,18 @@
         <v>0.1</v>
       </c>
       <c r="E220" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F220" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G220" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="45" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B221" s="41">
         <v>6.5</v>
@@ -28501,18 +28494,18 @@
         <v>0.4</v>
       </c>
       <c r="E221" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F221" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G221" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="45" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B222" s="41">
         <v>6.6</v>
@@ -28524,18 +28517,18 @@
         <v>0.3</v>
       </c>
       <c r="E222" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F222" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G222" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="45" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B223" s="41">
         <v>2.6</v>
@@ -28544,21 +28537,21 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D223" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E223" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F223" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G223" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B224" s="13"/>
       <c r="C224" s="13"/>
@@ -28569,19 +28562,19 @@
     </row>
     <row r="225" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B225" s="13">
         <v>26.1</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D225" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E225" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F225" s="13">
         <v>19.100000000000001</v>
@@ -28601,7 +28594,7 @@
     </row>
     <row r="227" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
@@ -28612,7 +28605,7 @@
     </row>
     <row r="228" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
@@ -28623,7 +28616,7 @@
     </row>
     <row r="229" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B229" s="13">
         <v>63</v>
@@ -28635,10 +28628,10 @@
         <v>3.7</v>
       </c>
       <c r="E229" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F229" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G229" s="13">
         <v>2</v>
@@ -28646,7 +28639,7 @@
     </row>
     <row r="230" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B230" s="13">
         <v>42.8</v>
@@ -28658,18 +28651,18 @@
         <v>2.8</v>
       </c>
       <c r="E230" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F230" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G230" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B231" s="13">
         <v>9.8000000000000007</v>
@@ -28681,18 +28674,18 @@
         <v>1.4</v>
       </c>
       <c r="E231" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F231" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G231" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B232" s="13">
         <v>28.7</v>
@@ -28704,18 +28697,18 @@
         <v>1.4</v>
       </c>
       <c r="E232" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F232" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G232" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B233" s="13">
         <v>4.3</v>
@@ -28724,21 +28717,21 @@
         <v>4.3</v>
       </c>
       <c r="D233" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E233" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F233" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G233" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B234" s="13">
         <v>15.6</v>
@@ -28750,10 +28743,10 @@
         <v>0.7</v>
       </c>
       <c r="E234" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F234" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G234" s="13">
         <v>0.9</v>
@@ -28761,7 +28754,7 @@
     </row>
     <row r="235" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B235" s="13">
         <v>6</v>
@@ -28773,10 +28766,10 @@
         <v>0.5</v>
       </c>
       <c r="E235" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F235" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G235" s="13">
         <v>0.4</v>
@@ -28784,7 +28777,7 @@
     </row>
     <row r="236" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B236" s="13">
         <v>7.9</v>
@@ -28796,10 +28789,10 @@
         <v>0.2</v>
       </c>
       <c r="E236" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F236" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G236" s="13">
         <v>0.3</v>
@@ -28807,7 +28800,7 @@
     </row>
     <row r="237" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B237" s="13">
         <v>1.6</v>
@@ -28816,13 +28809,13 @@
         <v>1.4</v>
       </c>
       <c r="D237" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E237" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F237" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G237" s="13">
         <v>0.2</v>
@@ -28830,7 +28823,7 @@
     </row>
     <row r="238" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B238" s="13">
         <v>4.5999999999999996</v>
@@ -28842,10 +28835,10 @@
         <v>0.2</v>
       </c>
       <c r="E238" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F238" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G238" s="13">
         <v>1</v>
@@ -28853,7 +28846,7 @@
     </row>
     <row r="239" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B239" s="13">
         <v>22.5</v>
@@ -28865,10 +28858,10 @@
         <v>3</v>
       </c>
       <c r="E239" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F239" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G239" s="13">
         <v>4.9000000000000004</v>
@@ -28876,16 +28869,16 @@
     </row>
     <row r="240" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B240" s="13">
         <v>28.1</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D240" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E240" s="13">
         <v>9</v>
@@ -28894,7 +28887,7 @@
         <v>19.100000000000001</v>
       </c>
       <c r="G240" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -28908,7 +28901,7 @@
     </row>
     <row r="242" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B242" s="13"/>
       <c r="C242" s="13"/>
@@ -28919,7 +28912,7 @@
     </row>
     <row r="243" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B243" s="13">
         <v>50.2</v>
@@ -28942,7 +28935,7 @@
     </row>
     <row r="244" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B244" s="13">
         <v>63.4</v>
@@ -28974,7 +28967,7 @@
     </row>
     <row r="246" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B246" s="13"/>
       <c r="C246" s="13"/>
@@ -28985,7 +28978,7 @@
     </row>
     <row r="247" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B247" s="13">
         <v>40.6</v>
@@ -29008,7 +29001,7 @@
     </row>
     <row r="248" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B248" s="13">
         <v>49.2</v>
@@ -29031,7 +29024,7 @@
     </row>
     <row r="249" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B249" s="13">
         <v>22.8</v>
@@ -29054,7 +29047,7 @@
     </row>
     <row r="250" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B250" s="13">
         <v>1</v>
@@ -29063,7 +29056,7 @@
         <v>0.5</v>
       </c>
       <c r="D250" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E250" s="13">
         <v>0.1</v>
@@ -29072,7 +29065,7 @@
         <v>0.3</v>
       </c>
       <c r="G250" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29086,7 +29079,7 @@
     </row>
     <row r="252" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
@@ -29097,7 +29090,7 @@
     </row>
     <row r="253" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B253" s="13">
         <v>25.5</v>
@@ -29120,7 +29113,7 @@
     </row>
     <row r="254" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B254" s="13">
         <v>88.1</v>
@@ -29152,7 +29145,7 @@
     </row>
     <row r="256" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B256" s="13"/>
       <c r="C256" s="13"/>
@@ -29163,7 +29156,7 @@
     </row>
     <row r="257" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B257" s="13">
         <v>60.1</v>
@@ -29186,7 +29179,7 @@
     </row>
     <row r="258" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B258" s="13">
         <v>36</v>
@@ -29209,7 +29202,7 @@
     </row>
     <row r="259" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B259" s="13">
         <v>9.1</v>
@@ -29232,7 +29225,7 @@
     </row>
     <row r="260" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B260" s="13">
         <v>8.4</v>
@@ -29263,7 +29256,7 @@
     </row>
     <row r="262" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B262" s="13"/>
       <c r="C262" s="13"/>
@@ -29274,7 +29267,7 @@
     </row>
     <row r="263" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B263" s="13"/>
       <c r="C263" s="13"/>
@@ -29285,7 +29278,7 @@
     </row>
     <row r="264" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B264" s="13">
         <v>40.799999999999997</v>
@@ -29308,7 +29301,7 @@
     </row>
     <row r="265" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B265" s="13">
         <v>72.900000000000006</v>
@@ -29339,7 +29332,7 @@
     </row>
     <row r="267" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B267" s="13"/>
       <c r="C267" s="13"/>
@@ -29350,7 +29343,7 @@
     </row>
     <row r="268" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B268" s="13">
         <v>30.7</v>
@@ -29368,12 +29361,12 @@
         <v>2.6</v>
       </c>
       <c r="G268" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B269" s="13">
         <v>76</v>
@@ -29391,27 +29384,27 @@
         <v>16.5</v>
       </c>
       <c r="G269" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B270" s="13">
         <v>6.9</v>
       </c>
       <c r="C270" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D270" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E270" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F270" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G270" s="13">
         <v>6.9</v>
@@ -29428,7 +29421,7 @@
     </row>
     <row r="272" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B272" s="13"/>
       <c r="C272" s="13"/>
@@ -29439,7 +29432,7 @@
     </row>
     <row r="273" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
@@ -29450,7 +29443,7 @@
     </row>
     <row r="274" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B274" s="13">
         <v>18</v>
@@ -29468,12 +29461,12 @@
         <v>0.8</v>
       </c>
       <c r="G274" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B275" s="13">
         <v>12.7</v>
@@ -29491,7 +29484,7 @@
         <v>1.8</v>
       </c>
       <c r="G275" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29505,7 +29498,7 @@
     </row>
     <row r="277" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
@@ -29516,7 +29509,7 @@
     </row>
     <row r="278" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B278" s="13">
         <v>47.2</v>
@@ -29539,7 +29532,7 @@
     </row>
     <row r="279" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B279" s="13">
         <v>64.099999999999994</v>
@@ -29562,7 +29555,7 @@
     </row>
     <row r="280" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B280" s="13">
         <v>1.6</v>
@@ -29574,13 +29567,13 @@
         <v>0.1</v>
       </c>
       <c r="E280" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F280" s="13">
         <v>0.2</v>
       </c>
       <c r="G280" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29594,7 +29587,7 @@
     </row>
     <row r="282" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B282" s="13"/>
       <c r="C282" s="13"/>
@@ -29605,7 +29598,7 @@
     </row>
     <row r="283" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B283" s="13">
         <v>16.8</v>
@@ -29628,7 +29621,7 @@
     </row>
     <row r="284" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B284" s="13">
         <v>18</v>
@@ -29651,7 +29644,7 @@
     </row>
     <row r="285" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B285" s="13">
         <v>78.099999999999994</v>
@@ -29683,7 +29676,7 @@
     </row>
     <row r="287" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B287" s="13"/>
       <c r="C287" s="13"/>
@@ -29694,7 +29687,7 @@
     </row>
     <row r="288" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B288" s="13">
         <v>68.099999999999994</v>
@@ -29717,7 +29710,7 @@
     </row>
     <row r="289" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B289" s="13">
         <v>44.7</v>
@@ -29740,7 +29733,7 @@
     </row>
     <row r="290" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B290" s="13">
         <v>0.8</v>
@@ -29749,7 +29742,7 @@
         <v>0.4</v>
       </c>
       <c r="D290" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E290" s="13">
         <v>0.1</v>
@@ -29758,7 +29751,7 @@
         <v>0.2</v>
       </c>
       <c r="G290" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29772,7 +29765,7 @@
     </row>
     <row r="292" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B292" s="13"/>
       <c r="C292" s="13"/>
@@ -29783,7 +29776,7 @@
     </row>
     <row r="293" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B293" s="13">
         <v>4.5999999999999996</v>
@@ -29806,7 +29799,7 @@
     </row>
     <row r="294" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B294" s="13">
         <v>109</v>
@@ -29838,7 +29831,7 @@
     </row>
     <row r="296" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B296" s="13"/>
       <c r="C296" s="13"/>
@@ -29849,7 +29842,7 @@
     </row>
     <row r="297" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B297" s="13"/>
       <c r="C297" s="13"/>
@@ -29860,7 +29853,7 @@
     </row>
     <row r="298" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B298" s="13">
         <v>49.6</v>
@@ -29883,7 +29876,7 @@
     </row>
     <row r="299" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B299" s="13">
         <v>52.3</v>
@@ -29906,7 +29899,7 @@
     </row>
     <row r="300" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B300" s="13">
         <v>0.5</v>
@@ -29915,21 +29908,21 @@
         <v>0.3</v>
       </c>
       <c r="D300" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E300" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F300" s="13">
         <v>0.1</v>
       </c>
       <c r="G300" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B301" s="13">
         <v>11.2</v>
@@ -29968,158 +29961,158 @@
       <c r="G303" s="13"/>
     </row>
     <row r="304" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="B304" s="77"/>
-      <c r="C304" s="77"/>
-      <c r="D304" s="77"/>
-      <c r="E304" s="77"/>
-      <c r="F304" s="77"/>
-      <c r="G304" s="77"/>
+      <c r="A304" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="B304" s="78"/>
+      <c r="C304" s="78"/>
+      <c r="D304" s="78"/>
+      <c r="E304" s="78"/>
+      <c r="F304" s="78"/>
+      <c r="G304" s="78"/>
       <c r="H304" s="28"/>
       <c r="I304" s="28"/>
     </row>
     <row r="305" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="77"/>
-      <c r="B305" s="77"/>
-      <c r="C305" s="77"/>
-      <c r="D305" s="77"/>
-      <c r="E305" s="77"/>
-      <c r="F305" s="77"/>
-      <c r="G305" s="77"/>
+      <c r="A305" s="78"/>
+      <c r="B305" s="78"/>
+      <c r="C305" s="78"/>
+      <c r="D305" s="78"/>
+      <c r="E305" s="78"/>
+      <c r="F305" s="78"/>
+      <c r="G305" s="78"/>
       <c r="H305" s="28"/>
       <c r="I305" s="28"/>
     </row>
     <row r="306" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="77"/>
-      <c r="B306" s="77"/>
-      <c r="C306" s="77"/>
-      <c r="D306" s="77"/>
-      <c r="E306" s="77"/>
-      <c r="F306" s="77"/>
-      <c r="G306" s="77"/>
+      <c r="A306" s="78"/>
+      <c r="B306" s="78"/>
+      <c r="C306" s="78"/>
+      <c r="D306" s="78"/>
+      <c r="E306" s="78"/>
+      <c r="F306" s="78"/>
+      <c r="G306" s="78"/>
       <c r="H306" s="28"/>
       <c r="I306" s="28"/>
     </row>
     <row r="307" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="77"/>
-      <c r="B307" s="77"/>
-      <c r="C307" s="77"/>
-      <c r="D307" s="77"/>
-      <c r="E307" s="77"/>
-      <c r="F307" s="77"/>
-      <c r="G307" s="77"/>
+      <c r="A307" s="78"/>
+      <c r="B307" s="78"/>
+      <c r="C307" s="78"/>
+      <c r="D307" s="78"/>
+      <c r="E307" s="78"/>
+      <c r="F307" s="78"/>
+      <c r="G307" s="78"/>
       <c r="H307" s="28"/>
       <c r="I307" s="28"/>
     </row>
     <row r="308" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="77"/>
-      <c r="B308" s="77"/>
-      <c r="C308" s="77"/>
-      <c r="D308" s="77"/>
-      <c r="E308" s="77"/>
-      <c r="F308" s="77"/>
-      <c r="G308" s="77"/>
+      <c r="A308" s="78"/>
+      <c r="B308" s="78"/>
+      <c r="C308" s="78"/>
+      <c r="D308" s="78"/>
+      <c r="E308" s="78"/>
+      <c r="F308" s="78"/>
+      <c r="G308" s="78"/>
       <c r="H308" s="28"/>
       <c r="I308" s="28"/>
     </row>
     <row r="309" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="77"/>
-      <c r="B309" s="77"/>
-      <c r="C309" s="77"/>
-      <c r="D309" s="77"/>
-      <c r="E309" s="77"/>
-      <c r="F309" s="77"/>
-      <c r="G309" s="77"/>
+      <c r="A309" s="78"/>
+      <c r="B309" s="78"/>
+      <c r="C309" s="78"/>
+      <c r="D309" s="78"/>
+      <c r="E309" s="78"/>
+      <c r="F309" s="78"/>
+      <c r="G309" s="78"/>
       <c r="H309" s="28"/>
       <c r="I309" s="28"/>
     </row>
     <row r="310" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="77"/>
-      <c r="B310" s="77"/>
-      <c r="C310" s="77"/>
-      <c r="D310" s="77"/>
-      <c r="E310" s="77"/>
-      <c r="F310" s="77"/>
-      <c r="G310" s="77"/>
+      <c r="A310" s="78"/>
+      <c r="B310" s="78"/>
+      <c r="C310" s="78"/>
+      <c r="D310" s="78"/>
+      <c r="E310" s="78"/>
+      <c r="F310" s="78"/>
+      <c r="G310" s="78"/>
       <c r="H310" s="28"/>
       <c r="I310" s="28"/>
     </row>
     <row r="311" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="77"/>
-      <c r="B311" s="77"/>
-      <c r="C311" s="77"/>
-      <c r="D311" s="77"/>
-      <c r="E311" s="77"/>
-      <c r="F311" s="77"/>
-      <c r="G311" s="77"/>
+      <c r="A311" s="78"/>
+      <c r="B311" s="78"/>
+      <c r="C311" s="78"/>
+      <c r="D311" s="78"/>
+      <c r="E311" s="78"/>
+      <c r="F311" s="78"/>
+      <c r="G311" s="78"/>
       <c r="H311" s="28"/>
       <c r="I311" s="28"/>
     </row>
     <row r="312" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="77"/>
-      <c r="B312" s="77"/>
-      <c r="C312" s="77"/>
-      <c r="D312" s="77"/>
-      <c r="E312" s="77"/>
-      <c r="F312" s="77"/>
-      <c r="G312" s="77"/>
+      <c r="A312" s="78"/>
+      <c r="B312" s="78"/>
+      <c r="C312" s="78"/>
+      <c r="D312" s="78"/>
+      <c r="E312" s="78"/>
+      <c r="F312" s="78"/>
+      <c r="G312" s="78"/>
       <c r="H312" s="28"/>
       <c r="I312" s="28"/>
     </row>
     <row r="313" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="77"/>
-      <c r="B313" s="77"/>
-      <c r="C313" s="77"/>
-      <c r="D313" s="77"/>
-      <c r="E313" s="77"/>
-      <c r="F313" s="77"/>
-      <c r="G313" s="77"/>
+      <c r="A313" s="78"/>
+      <c r="B313" s="78"/>
+      <c r="C313" s="78"/>
+      <c r="D313" s="78"/>
+      <c r="E313" s="78"/>
+      <c r="F313" s="78"/>
+      <c r="G313" s="78"/>
       <c r="H313" s="28"/>
       <c r="I313" s="28"/>
     </row>
     <row r="314" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="77"/>
-      <c r="B314" s="77"/>
-      <c r="C314" s="77"/>
-      <c r="D314" s="77"/>
-      <c r="E314" s="77"/>
-      <c r="F314" s="77"/>
-      <c r="G314" s="77"/>
+      <c r="A314" s="78"/>
+      <c r="B314" s="78"/>
+      <c r="C314" s="78"/>
+      <c r="D314" s="78"/>
+      <c r="E314" s="78"/>
+      <c r="F314" s="78"/>
+      <c r="G314" s="78"/>
       <c r="H314" s="28"/>
       <c r="I314" s="28"/>
     </row>
     <row r="315" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="77"/>
-      <c r="B315" s="77"/>
-      <c r="C315" s="77"/>
-      <c r="D315" s="77"/>
-      <c r="E315" s="77"/>
-      <c r="F315" s="77"/>
-      <c r="G315" s="77"/>
+      <c r="A315" s="78"/>
+      <c r="B315" s="78"/>
+      <c r="C315" s="78"/>
+      <c r="D315" s="78"/>
+      <c r="E315" s="78"/>
+      <c r="F315" s="78"/>
+      <c r="G315" s="78"/>
       <c r="H315" s="28"/>
       <c r="I315" s="28"/>
     </row>
     <row r="316" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="77"/>
-      <c r="B316" s="77"/>
-      <c r="C316" s="77"/>
-      <c r="D316" s="77"/>
-      <c r="E316" s="77"/>
-      <c r="F316" s="77"/>
-      <c r="G316" s="77"/>
+      <c r="A316" s="78"/>
+      <c r="B316" s="78"/>
+      <c r="C316" s="78"/>
+      <c r="D316" s="78"/>
+      <c r="E316" s="78"/>
+      <c r="F316" s="78"/>
+      <c r="G316" s="78"/>
       <c r="H316" s="28"/>
       <c r="I316" s="28"/>
     </row>
     <row r="317" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="77"/>
-      <c r="B317" s="77"/>
-      <c r="C317" s="77"/>
-      <c r="D317" s="77"/>
-      <c r="E317" s="77"/>
-      <c r="F317" s="77"/>
-      <c r="G317" s="77"/>
+      <c r="A317" s="78"/>
+      <c r="B317" s="78"/>
+      <c r="C317" s="78"/>
+      <c r="D317" s="78"/>
+      <c r="E317" s="78"/>
+      <c r="F317" s="78"/>
+      <c r="G317" s="78"/>
       <c r="H317" s="28"/>
       <c r="I317" s="28"/>
     </row>
@@ -30193,22 +30186,22 @@
         <v>107</v>
       </c>
       <c r="B1" s="54" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>580</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>569</v>
+      </c>
+      <c r="F1" s="54" t="s">
         <v>570</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="G1" s="54" t="s">
         <v>571</v>
-      </c>
-      <c r="D1" s="54" t="s">
-        <v>583</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>572</v>
-      </c>
-      <c r="F1" s="54" t="s">
-        <v>573</v>
-      </c>
-      <c r="G1" s="54" t="s">
-        <v>574</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -30343,7 +30336,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B7" s="53">
         <f>INDEX('AEO Table 4'!$C$72:$AK$72,MATCH(About!$A$34,'AEO Table 4'!$C$1:$AK$1,0))*10^15*About!$A$79</f>
@@ -30367,7 +30360,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B8" s="53">
         <v>0</v>
@@ -30390,7 +30383,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B9" s="53">
         <v>0</v>
@@ -30413,7 +30406,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B10" s="53">
         <f>INDEX('AEO Table 4'!$C$66:$AK$66,MATCH(About!$A$34,'AEO Table 4'!$C$1:$AK$1,0))*10^15*About!$A$79</f>
@@ -30439,7 +30432,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B11" s="53">
         <v>0</v>
@@ -30492,22 +30485,22 @@
         <v>107</v>
       </c>
       <c r="B1" s="54" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>580</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>569</v>
+      </c>
+      <c r="F1" s="54" t="s">
         <v>570</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="G1" s="54" t="s">
         <v>571</v>
-      </c>
-      <c r="D1" s="54" t="s">
-        <v>583</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>572</v>
-      </c>
-      <c r="F1" s="54" t="s">
-        <v>573</v>
-      </c>
-      <c r="G1" s="54" t="s">
-        <v>574</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -30642,7 +30635,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B7" s="53">
         <f>INDEX('AEO Table 4'!$C$72:$AK$72,MATCH(About!$A$34,'AEO Table 4'!$C$1:$AK$1,0))*10^15*About!$A$80</f>
@@ -30666,7 +30659,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B8" s="53">
         <v>0</v>
@@ -30689,7 +30682,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B9" s="53">
         <v>0</v>
@@ -30712,7 +30705,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B10" s="53">
         <f>INDEX('AEO Table 4'!$C$66:$AK$66,MATCH(About!$A$34,'AEO Table 4'!$C$1:$AK$1,0))*10^15*About!$A$80</f>
@@ -30738,7 +30731,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B11" s="53">
         <v>0</v>
@@ -30772,7 +30765,7 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M41" sqref="M41"/>
       <selection pane="topRight" activeCell="M41" sqref="M41"/>
@@ -30791,22 +30784,22 @@
         <v>107</v>
       </c>
       <c r="B1" s="54" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>580</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>569</v>
+      </c>
+      <c r="F1" s="54" t="s">
         <v>570</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="G1" s="54" t="s">
         <v>571</v>
-      </c>
-      <c r="D1" s="54" t="s">
-        <v>583</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>572</v>
-      </c>
-      <c r="F1" s="54" t="s">
-        <v>573</v>
-      </c>
-      <c r="G1" s="54" t="s">
-        <v>574</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -30943,7 +30936,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B7" s="53">
         <v>0</v>
@@ -30966,7 +30959,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B8" s="53">
         <v>0</v>
@@ -30989,7 +30982,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B9" s="53">
         <v>0</v>
@@ -31012,7 +31005,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B10" s="53">
         <f>(INDEX('AEO Table 5'!$C$58:$AK$58,MATCH(About!$A$34,'AEO Table 5'!$C$1:$AK$1,0))*(1-About!$C$61))*INDEX('AEO Table 5'!$C$52:$AK$52,MATCH(About!$A$34,'AEO Table 5'!$C$1:$AK$1,0))/INDEX('AEO Table 5'!$C$55:$AK$55,MATCH(About!$A$34,'AEO Table 5'!$C$1:$AK$1,0))*10^15</f>
@@ -31038,7 +31031,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B11" s="53">
         <v>0</v>
